--- a/2025-Second-SEMESTER/Excel/기초함수.xlsx
+++ b/2025-Second-SEMESTER/Excel/기초함수.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GWNU_Github_20251413\2025-Second-SEMESTER\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E59678-F0B2-446A-84CB-7086537B7721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DEE7FB-84A0-4BEF-B129-35EEC04BD51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="3951" windowWidth="24686" windowHeight="13055" xr2:uid="{80954741-C264-43D9-827C-D61009E56E18}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="2" xr2:uid="{80954741-C264-43D9-827C-D61009E56E18}"/>
   </bookViews>
   <sheets>
     <sheet name="집애 가자!" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="과제 ㅈ됬다!" sheetId="2" r:id="rId2"/>
+    <sheet name="빵댕이가 아프다" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +139,138 @@
   </si>
   <si>
     <t>CH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적 %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75-80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130 -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70-75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85-90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105-110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110-115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115-120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120-125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125-130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희망전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어교육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의류직물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대도수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,8 +278,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0&quot;점&quot;"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0&quot;점&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -181,7 +317,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,8 +342,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -230,13 +390,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,7 +461,40 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -276,6 +512,1097 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>그래프 입니다</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5358705161854769E-2"/>
+          <c:y val="0.20467592592592593"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.60423447069116365"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'과제 ㅈ됬다!'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>빈도</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="FF0000">
+                      <a:shade val="30000"/>
+                      <a:satMod val="115000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="FF0000">
+                      <a:shade val="67500"/>
+                      <a:satMod val="115000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="FF0000">
+                      <a:shade val="100000"/>
+                      <a:satMod val="115000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-21DC-4890-B0E5-2B77F3C9349D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-21DC-4890-B0E5-2B77F3C9349D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'과제 ㅈ됬다!'!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70-75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75-80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85-90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95-100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100-105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105-110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110-115</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>115-120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120-125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125-130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130 -</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'과제 ㅈ됬다!'!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F89F-43C2-A5C5-532DD88981B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1616526240"/>
+        <c:axId val="1616525408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1616526240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1616525408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1616525408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1616526240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>120142</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>146939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>517707</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>220227</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C8456E-71D3-45E3-9668-1BCB1FD8BD9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,7 +1904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC61710-5F73-485F-A72F-C1A36CDFC645}">
   <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -1172,13 +2499,596 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB131AB0-89D8-424B-8FE1-B93771D14A5B}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="7.640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8">
+        <f>C3/$C$15*100</f>
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="8">
+        <f>D3</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2">
+        <v>51</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:D15" si="0">C4/$C$15*100</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E4" s="9">
+        <f>E3+D4</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2">
+        <v>83</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" ref="E5:E14" si="1">E4+D5</f>
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2">
+        <v>95</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="1"/>
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2">
+        <v>84</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="1"/>
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2">
+        <v>120</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2">
+        <v>140</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>14.000000000000002</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="1"/>
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2">
+        <v>112</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>11.200000000000001</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2">
+        <v>150</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2">
+        <v>69</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="0"/>
+        <v>6.9</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="1"/>
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2">
+        <v>59</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="0"/>
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="1"/>
+        <v>98.800000000000011</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="1"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="13">
+        <f>SUM(C3:C14)</f>
+        <v>1000</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E15" s="16"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB75FFF1-2F8B-4BBE-91BF-C88E31B47F56}">
+  <dimension ref="B2:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.78515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11.640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="27.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2">
+        <f>COUNTIF($C$3:$C$22,E3)</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="2">
+        <f>F3/$F$15</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F14" si="0">COUNTIF($C$3:$C$22,E4)</f>
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G14" si="1">F4/$F$15</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="12">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="12">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="12">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="12">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="12">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="12">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="12">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="18">
+        <f>SUM(F3:F14)</f>
+        <v>20</v>
+      </c>
+      <c r="G15" s="18">
+        <f>SUM(G3:G14)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="12">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="12">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="12">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="12">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="12">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="12">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="12">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:E15">
+    <sortCondition ref="E3:E15"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>